--- a/SpeedUp.xlsx
+++ b/SpeedUp.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11840" yWindow="2460" windowWidth="11700" windowHeight="14160" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,13 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
-  <si>
-    <t>garden 500*500</t>
-  </si>
-  <si>
-    <t>Photo</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="11">
   <si>
     <t>Serial</t>
   </si>
@@ -55,12 +49,24 @@
   <si>
     <t>Speedup</t>
   </si>
+  <si>
+    <t xml:space="preserve">garden 500*500 </t>
+  </si>
+  <si>
+    <t>Runtime( ms)</t>
+  </si>
+  <si>
+    <t>ms</t>
+  </si>
+  <si>
+    <t>Seconds</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -68,16 +74,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -85,14 +113,71 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="13">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -103,6 +188,4080 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Graden(500*500)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$11:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Serial</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>TBB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>TBB/ISPC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$11:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>24.65566666666667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.237</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.677666666666667</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-1875106576"/>
+        <c:axId val="-1871499024"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-1875106576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1871499024"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1871499024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (sec)</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1875106576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="is-IS" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>magic(1000 × 1000</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$11:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Serial</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>TBB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>TBB/ISPC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$11:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>882.657</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>121.9703333333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.713666666666667</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$D$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>magic(1000 × 1000)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$11:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Serial</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>TBB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>TBB/ISPC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$11:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>882.657</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>121.9703333333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.713666666666667</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$D$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>magic(1000 × 1000)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-1843331952"/>
+        <c:axId val="-1844782528"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-1843331952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1844782528"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1844782528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (sec)</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1843331952"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nl-NL" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>reef(1000 × 1500)</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="nl-NL" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$D$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>magic(1000 × 1000)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$11:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Serial</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>TBB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>TBB/ISPC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$11:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2355.931333333333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>271.413</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.092333333333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$D$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>magic(1000 × 1000)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-1875774752"/>
+        <c:axId val="-1871212720"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-1875774752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1871212720"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1871212720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (sec)</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1875774752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nl-NL" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>moon(1500 × 1000)</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="nl-NL" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$D$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>magic(1000 × 1000)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$11:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Serial</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>TBB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>TBB/ISPC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$11:$H$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2533.698333333333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>263.8313333333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.126333333333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$D$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>magic(1000 × 1000)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-1882664128"/>
+        <c:axId val="-1845464080"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-1882664128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1845464080"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1845464080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (sec)</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1882664128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>838200</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -368,135 +4527,324 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="19.6640625" customWidth="1"/>
-    <col min="3" max="3" width="22.5" customWidth="1"/>
-    <col min="4" max="4" width="19.83203125" customWidth="1"/>
-    <col min="5" max="5" width="19.6640625" customWidth="1"/>
-    <col min="6" max="6" width="21" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="A1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
+      <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>24653</v>
-      </c>
-      <c r="D2">
-        <v>869105</v>
-      </c>
-      <c r="F2">
-        <v>2355284</v>
-      </c>
-      <c r="H2">
-        <v>2575614</v>
+      <c r="A2" s="5"/>
+      <c r="B2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>3207</v>
-      </c>
-      <c r="C3">
-        <f>B2/B3</f>
-        <v>7.6872466479575925</v>
+      <c r="A3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2">
+        <f>(24653+24623+24691)/3</f>
+        <v>24655.666666666668</v>
       </c>
       <c r="D3">
-        <v>112131</v>
-      </c>
-      <c r="E3">
-        <f>D2/D3</f>
-        <v>7.7508004030999453</v>
-      </c>
-      <c r="F3">
-        <v>276459</v>
-      </c>
-      <c r="G3">
-        <f>F2/F3</f>
-        <v>8.5194694330804932</v>
-      </c>
-      <c r="H3">
-        <v>267093</v>
-      </c>
-      <c r="I3">
-        <f>H2/H3</f>
-        <v>9.6431355370601253</v>
+        <f>(869105+858788+920078)/3</f>
+        <v>882657</v>
+      </c>
+      <c r="F3" s="2">
+        <f>(2355284+2308690+2403820)/3</f>
+        <v>2355931.3333333335</v>
+      </c>
+      <c r="H3" s="2">
+        <f>(2575614+2636498+2388983)/3</f>
+        <v>2533698.3333333335</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2">
+        <f>(3207+3259+3245)/3</f>
+        <v>3237</v>
+      </c>
+      <c r="C4" s="1">
+        <f>B3/B4</f>
+        <v>7.6168262794768822</v>
+      </c>
+      <c r="D4" s="2">
+        <f>(112131+120605+133175)/3</f>
+        <v>121970.33333333333</v>
+      </c>
+      <c r="E4" s="1">
+        <f>D3/D4</f>
+        <v>7.23665317522567</v>
+      </c>
+      <c r="F4" s="2">
+        <f>(276459+268755+269025)/3</f>
+        <v>271413</v>
+      </c>
+      <c r="G4" s="1">
+        <f>F3/F4</f>
+        <v>8.6802449894932572</v>
+      </c>
+      <c r="H4" s="2">
+        <f>(267093+261782+262619)/3</f>
+        <v>263831.33333333331</v>
+      </c>
+      <c r="I4" s="1">
+        <f>H3/H4</f>
+        <v>9.603477726931601</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2">
+        <f>(679+677+677)/3</f>
+        <v>677.66666666666663</v>
+      </c>
+      <c r="C5" s="1">
+        <f>B3/B5</f>
+        <v>36.383177570093459</v>
+      </c>
+      <c r="D5" s="2">
+        <f>(2718+2705+2718)/3</f>
+        <v>2713.6666666666665</v>
+      </c>
+      <c r="E5" s="1">
+        <f>D3/D5</f>
+        <v>325.26360397985508</v>
+      </c>
+      <c r="F5" s="2">
+        <f>(4068+4066+4143)/3</f>
+        <v>4092.3333333333335</v>
+      </c>
+      <c r="G5" s="1">
+        <f>F3/F5</f>
+        <v>575.69389916103285</v>
+      </c>
+      <c r="H5" s="2">
+        <f>(4178+4083+4118)/3</f>
+        <v>4126.333333333333</v>
+      </c>
+      <c r="I5" s="1">
+        <f>H3/H5</f>
+        <v>614.03142418612174</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
-        <v>679</v>
-      </c>
-      <c r="C4">
-        <f>B2/B4</f>
-        <v>36.307805596465393</v>
-      </c>
-      <c r="D4">
-        <v>2718</v>
-      </c>
-      <c r="E4">
-        <f>D2/D4</f>
-        <v>319.7590139808683</v>
-      </c>
-      <c r="F4">
-        <v>4068</v>
-      </c>
-      <c r="G4">
-        <f>F2/F4</f>
-        <v>578.9783677482792</v>
-      </c>
-      <c r="H4">
-        <v>4178</v>
-      </c>
-      <c r="I4">
-        <f>H2/H4</f>
-        <v>616.47056007659171</v>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="5"/>
+      <c r="B10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="1">
+        <f>(24653+24623+24691)/3/1000</f>
+        <v>24.655666666666669</v>
+      </c>
+      <c r="D11" s="1">
+        <f>(869105+858788+920078)/3/1000</f>
+        <v>882.65700000000004</v>
+      </c>
+      <c r="F11" s="1">
+        <f>(2355284+2308690+2403820)/3/1000</f>
+        <v>2355.9313333333334</v>
+      </c>
+      <c r="H11" s="1">
+        <f>(2575614+2636498+2388983)/3/1000</f>
+        <v>2533.6983333333333</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="1">
+        <f>(3207+3259+3245)/3/1000</f>
+        <v>3.2370000000000001</v>
+      </c>
+      <c r="C12" s="1">
+        <f>B11/B12</f>
+        <v>7.6168262794768822</v>
+      </c>
+      <c r="D12" s="1">
+        <f>(112131+120605+133175)/3/1000</f>
+        <v>121.97033333333333</v>
+      </c>
+      <c r="E12" s="1">
+        <f>D11/D12</f>
+        <v>7.23665317522567</v>
+      </c>
+      <c r="F12" s="1">
+        <f>(276459+268755+269025)/3/1000</f>
+        <v>271.41300000000001</v>
+      </c>
+      <c r="G12" s="1">
+        <f>F11/F12</f>
+        <v>8.6802449894932572</v>
+      </c>
+      <c r="H12" s="1">
+        <f>(267093+261782+262619)/3/1000</f>
+        <v>263.8313333333333</v>
+      </c>
+      <c r="I12" s="1">
+        <f>H11/H12</f>
+        <v>9.603477726931601</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="1">
+        <f>(679+677+677)/3/1000</f>
+        <v>0.67766666666666664</v>
+      </c>
+      <c r="C13" s="1">
+        <f>B11/B13</f>
+        <v>36.383177570093466</v>
+      </c>
+      <c r="D13" s="1">
+        <f>(2718+2705+2718)/3/1000</f>
+        <v>2.7136666666666667</v>
+      </c>
+      <c r="E13" s="1">
+        <f>D11/D13</f>
+        <v>325.26360397985508</v>
+      </c>
+      <c r="F13" s="1">
+        <f>(4068+4066+4143)/3/1000</f>
+        <v>4.0923333333333334</v>
+      </c>
+      <c r="G13" s="1">
+        <f>F11/F13</f>
+        <v>575.69389916103285</v>
+      </c>
+      <c r="H13" s="1">
+        <f>(4178+4083+4118)/3/1000</f>
+        <v>4.1263333333333332</v>
+      </c>
+      <c r="I13" s="1">
+        <f>H11/H13</f>
+        <v>614.03142418612163</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>